--- a/SkillDemo/InvoiceTable.xlsx
+++ b/SkillDemo/InvoiceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Catherine-Schiber-Code\SkillDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B953152C-A0B6-4FB3-82FD-6AF072A66407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025C683B-4801-432F-9DC9-A4203FF9AD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="2900" windowWidth="17300" windowHeight="9980" xr2:uid="{07F52732-1D5D-4664-A931-CEAEA87F1C59}"/>
+    <workbookView minimized="1" xWindow="3320" yWindow="2900" windowWidth="17300" windowHeight="9980" xr2:uid="{07F52732-1D5D-4664-A931-CEAEA87F1C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -50,10 +50,40 @@
     <t>total</t>
   </si>
   <si>
-    <t>Rios, Oneill and Rowe</t>
-  </si>
-  <si>
-    <t>3571 Tina Trafficway Buckleyland, LA 97688</t>
+    <t>Jordan-Spencer</t>
+  </si>
+  <si>
+    <t>60946 Connor Falls Suite 964 South Desiree, HI 42938</t>
+  </si>
+  <si>
+    <t>Marsh, Harris and Ortiz</t>
+  </si>
+  <si>
+    <t>6103 Autumn Forges South Bruce, SC 29993</t>
+  </si>
+  <si>
+    <t>Taylor PLC</t>
+  </si>
+  <si>
+    <t>Unit 8528 Box 8676 DPO AE 62685</t>
+  </si>
+  <si>
+    <t>Craig, Fox and Anderson</t>
+  </si>
+  <si>
+    <t>14177 Elizabeth Manor South Michellefurt, MA 25472</t>
+  </si>
+  <si>
+    <t>Kirk, Collins and Henson</t>
+  </si>
+  <si>
+    <t>0702 Hannah Light Apt. 466 Youngchester, NC 15130</t>
+  </si>
+  <si>
+    <t>Richards, Cole and Young</t>
+  </si>
+  <si>
+    <t>USCGC Webb FPO AE 44644</t>
   </si>
 </sst>
 </file>
@@ -405,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FBDFE5-7E54-4584-B37A-AF2BA1B5E41D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1048576"/>
@@ -413,8 +443,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -441,10 +471,80 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>19471831</v>
+        <v>39714865</v>
       </c>
       <c r="D2">
-        <v>44745.59</v>
+        <v>204.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>49416245</v>
+      </c>
+      <c r="D3">
+        <v>142.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>40949664</v>
+      </c>
+      <c r="D4">
+        <v>421.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>44868919</v>
+      </c>
+      <c r="D5">
+        <v>481.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>86780085</v>
+      </c>
+      <c r="D6">
+        <v>8700.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>75050384</v>
+      </c>
+      <c r="D7">
+        <v>25346.42</v>
       </c>
     </row>
   </sheetData>
